--- a/biology/Origine et évolution du vivant/Latimerioidei/Latimerioidei.xlsx
+++ b/biology/Origine et évolution du vivant/Latimerioidei/Latimerioidei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Latimerioidei constituent un sous-ordre de poissons à membres charnus rattaché à l'ordre des Coelacanthiformes[1]. Ce taxon regroupe quelques genres basaux et deux familles :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Latimerioidei constituent un sous-ordre de poissons à membres charnus rattaché à l'ordre des Coelacanthiformes. Ce taxon regroupe quelques genres basaux et deux familles :
 les Latimeriidae qui inclut plusieurs espèces fossiles, mais aussi les deux espèces de cœlacanthes encore vivantes de nos jours, regroupées dans le genre Latimeria ;
 les † Mawsoniidae, famille éteinte qui rassemble plusieurs espèces dont le cœlacanthe géant Mawsonia gigas.
 Les Latimerioidei sont connus dans le monde entier, ils ont vécu du Trias inférieur à nos jours, soit depuis 250 Ma (millions d'années).
@@ -514,9 +526,11 @@
           <t>Classification phylogénique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la Classification phylogénique, position des Latimerioidei au sein de l'ordre des Coelacanthiformes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la Classification phylogénique, position des Latimerioidei au sein de l'ordre des Coelacanthiformes :
 </t>
         </is>
       </c>
